--- a/biology/Zoologie/De_arte_venandi_cum_avibus/De_arte_venandi_cum_avibus.xlsx
+++ b/biology/Zoologie/De_arte_venandi_cum_avibus/De_arte_venandi_cum_avibus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le De arte venandi cum avibus (De l'art de chasser au moyen des oiseaux) est le texte d'un manuel de fauconnerie rédigé en latin par Frédéric II du Saint-Empire pour son fils Manfred au XIIIe siècle (de 1241 à 1248).
 Le traité complet se compose de six livres : le premier est une ornithologie générale qui traite des oiseaux de chasse et de leur gibier à plumes, les deux suivants décrivent l'affaitage des faucons, et les trois derniers enseignent la chasse à l'aide des faucons gerfauts, des sacres et des pèlerins. Il existe également une version en deux livres, pour le roi Manfred Ier de Sicile, laquelle a été traduite en français.
 Outre des explications sur la fauconnerie, l'ouvrage évoque une bonne centaine d'oiseaux différents. Les différentes positions des ailes d'oiseaux durant le vol y sont notamment décrites avec grande précision. 
-Le manuscrit le plus connu et décoré d'enluminures est conservé à la Bibliothèque du Vatican. Il est constitué de 111 folios de 36 x 25 cm et comporte environ 660 illustrations sur la chasse et la fauconnerie[1]. De plus, ce manuscrit contient des représentations marginales de plusieurs centaines d'oiseaux dessinées et colorées.
+Le manuscrit le plus connu et décoré d'enluminures est conservé à la Bibliothèque du Vatican. Il est constitué de 111 folios de 36 x 25 cm et comporte environ 660 illustrations sur la chasse et la fauconnerie. De plus, ce manuscrit contient des représentations marginales de plusieurs centaines d'oiseaux dessinées et colorées.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Édition et études</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>A. L. Trombetti Budriesi, Federico II di Svevia. De arte venandi cum avibus, Roma/Bari, 2000.
 Anne Paulus et Baudouin Van den Abeele, Frédéric II de Hohenstaufen, L’art de chasser avec les oiseaux. : Traduction intégrale en français du traité de fauconnerie De arte venandi cum avibus, Nogent-le-Roi, J. Laget – LAME, 2000.
